--- a/medicine/Enfance/Groupe_Bayard/Groupe_Bayard.xlsx
+++ b/medicine/Enfance/Groupe_Bayard/Groupe_Bayard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bayard (ou Groupe Bayard, anciennement Bayard Presse) est une entreprise de presse écrite et audiovisuelle française créé en 1870 par la congrégation religieuse catholique des Augustins de l'Assomption. Cette congrégation est aujourd'hui encore la propriétaire exclusive du groupe.
@@ -513,14 +525,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maison de la Bonne Presse, nom initial du groupe, est fondée en juillet 1873.
-Le premier titre à sortir des presses, Le Pèlerin, a vu le jour en juillet 1873. Il constituait alors le bulletin de liaison des pèlerinages (la Salette, Lourdes…). Les fondateurs visaient deux objectifs : contribuer au mouvement de restauration religieuse et sociale, et, affirmer une présence catholique dynamique à travers des manifestations de masse (pèlerinages, enseignements, presse...). Il est le premier hebdomadaire en couleurs lancé en France[2]. Le quotidien La Croix apparaît dix ans plus tard en 1883, suivi en 1895 par le Noël avec son supplément mensuel pour la jeunesse L'Écho de la jeunesse (1898-1910). En 1885, c'est le rachat de la revue Cosmos qui appartenait à l'abbé Moigno.
+Le premier titre à sortir des presses, Le Pèlerin, a vu le jour en juillet 1873. Il constituait alors le bulletin de liaison des pèlerinages (la Salette, Lourdes…). Les fondateurs visaient deux objectifs : contribuer au mouvement de restauration religieuse et sociale, et, affirmer une présence catholique dynamique à travers des manifestations de masse (pèlerinages, enseignements, presse...). Il est le premier hebdomadaire en couleurs lancé en France. Le quotidien La Croix apparaît dix ans plus tard en 1883, suivi en 1895 par le Noël avec son supplément mensuel pour la jeunesse L'Écho de la jeunesse (1898-1910). En 1885, c'est le rachat de la revue Cosmos qui appartenait à l'abbé Moigno.
 La Maison de la Bonne Presse est achetée par M. Paul Feron-Vrau, un proche intime des Augustins, quinze mois avant le vote de la Loi sur les Associations qui devait dépouiller les Congrégations religieuses. Malgré cette cession à une personne privée et sans tenir compte des preuves matérielles de cette vente, la Justice donne tous droits au liquidateur des Assomptionnistes. Les immeubles et le matériel furent vendus en 1908 et rachetés par la société civile La Jeanne d'Arc. Le 23 décembre 1909, M. Paul Feron-Vrau rachète au cours d'une vente, sans que se soit présenté un autre acquéreur, le fonds de commerce, les marchandises et tous les titres de la Maison de la Bonne Presse. M. Paul Feron-Vrau confiera : « ...on a considéré que La Croix n'était pas un journal comme les autres, parce qu'il renfermait l'idée surnaturelle, et c'est cette idée qu'on a voulu atteindre en foulant aux pieds tous les principes de propriété. »[réf. nécessaire]
 Le journal hebdomadaire Bernadette est lancé en janvier 1914, tandis que son pendant masculin Bayard, lui, ne sera lancé que le dimanche 5 janvier 1936 dans un contexte où "l'illustré" est encore mal perçu. On lui reproche de ne pas élever le jeune lecteur autant qu'un livre.
 Le Sanctuaire, hebdomadaire illustré des enfants de chœur, est fondé en 1911.
-Pendant la guerre d'Espagne, la maison accueille dans ses publications les illustrations de Mercè Llimona[3].
+Pendant la guerre d'Espagne, la maison accueille dans ses publications les illustrations de Mercè Llimona.
 Plusieurs collections ont été lancées par la Maison de la Bonne Presse :
 Romans cinématiques ;
 Albums pittoresques et artistiques ;
@@ -531,16 +545,16 @@
 Collection des Romans Populaires ;
 L'Arc-En-Ciel ;
 Bayard.
-L'entreprise porte le nom de Maison de la Bonne Presse jusqu'en 1969. Le nom du groupe, jugé un peu désuet et pouvant laisser entendre que la concurrence dans son ensemble constituait de la « mauvaise presse », change alors en 1970 pour Bayard Presse[4]. Ce choix permet de conserver les initiales BP (logo d'origine) et de rappeler l'implantation du groupe au 3/5 rue Bayard effective depuis les années 1880. (Bayard était d'ailleurs le nom d'un de ses hebdomadaires en couleurs pour la jeunesse et d'une collection de livres que le groupe édita dans les années 1950 et 1960).
-En juillet 2008, le groupe déménage à Montrouge, en proche banlieue parisienne[5]. Le groupe se dote d'un nouveau logo où les initiales BP disparaissent. Il est à noter que le nom officiel du groupe n'a pas changé depuis 1970, l'expression « Groupe Bayard » n'étant qu'une appellation générique[6].
+L'entreprise porte le nom de Maison de la Bonne Presse jusqu'en 1969. Le nom du groupe, jugé un peu désuet et pouvant laisser entendre que la concurrence dans son ensemble constituait de la « mauvaise presse », change alors en 1970 pour Bayard Presse. Ce choix permet de conserver les initiales BP (logo d'origine) et de rappeler l'implantation du groupe au 3/5 rue Bayard effective depuis les années 1880. (Bayard était d'ailleurs le nom d'un de ses hebdomadaires en couleurs pour la jeunesse et d'une collection de livres que le groupe édita dans les années 1950 et 1960).
+En juillet 2008, le groupe déménage à Montrouge, en proche banlieue parisienne. Le groupe se dote d'un nouveau logo où les initiales BP disparaissent. Il est à noter que le nom officiel du groupe n'a pas changé depuis 1970, l'expression « Groupe Bayard » n'étant qu'une appellation générique.
 Aujourd'hui, Bayard poursuit son développement à l'international et en régions avec 36 millions de lecteurs dans le monde, 5 millions d'abonnés, plus de 150 magazines, dont 72 en France, 8 millions de livres vendus chaque année. Le groupe réalise désormais 40 % de sa diffusion (hors paroissiaux) à l'étranger.
-Bayard, depuis l'acquisition de Milan (Presse et Éditions) en 2004, représente 27 % de la part de marché de la presse jeunesse en France, ce qui le place au premier rang, devant Hachette-Disney (25 %). Son chiffre d'affaires en 2005 fut de 433 millions d'euros[7].
-En 2015, Bayard est partenaire des Apprentis d'Auteuil, aux côtés d'associations et de mouvements de la jeunesse, dans la création d'un think tank, Vers le haut, consacré aux jeunes et à l'éducation[8].
-En septembre 2017, Bayard Éditions fait l'acquisition des Éditions Tourbillon, éditeur de livres pour la jeunesse, dont ils étaient précédemment actionnaire minoritaire[9].  
+Bayard, depuis l'acquisition de Milan (Presse et Éditions) en 2004, représente 27 % de la part de marché de la presse jeunesse en France, ce qui le place au premier rang, devant Hachette-Disney (25 %). Son chiffre d'affaires en 2005 fut de 433 millions d'euros.
+En 2015, Bayard est partenaire des Apprentis d'Auteuil, aux côtés d'associations et de mouvements de la jeunesse, dans la création d'un think tank, Vers le haut, consacré aux jeunes et à l'éducation.
+En septembre 2017, Bayard Éditions fait l'acquisition des Éditions Tourbillon, éditeur de livres pour la jeunesse, dont ils étaient précédemment actionnaire minoritaire.  
 Le président du directoire est Pascal Ruffenach qui a succédé à Georges Sanerot en 2017. Georges Sanerot avait remplacé Bruno Frappat en mai 2009. Ce dernier, qui avait lui-même pris la suite d'Alain Cordier en avril 2005, reste Président d'honneur. Les autres membres du directoire actuel sont Dominique Greiner, Florence Guémy et Jean-Marie Montel ; ils sont tous de fait directeurs généraux.
-Début octobre 2019, Bayard annonce un bénéfice net en très large hausse sur l'exercice décalé 2018-2019 avec un résultat net de 3,9 millions d'euros contre 0,3 million d'euros l'année précédente. Porté par la presse et l'édition jeunesse, le Groupe Bayard enregistre un chiffre d'affaires de 344,9 millions d'euros (en hausse lui aussi de 0,3 % par rapport à l'année précédente)[1].
-Début octobre 2020, Bayard déplore une perte nette de 7,3 millions d'euros sur l'exercice décalé 2019-2020, affecté par la Covid-19 et par le dépôt de bilan de Presstalis[10],[11].
-En mars 2024, le directoire du groupe annonce à ses salariés une perte record de 7,5 millions d’euros. Cette situation critique résulterait d’une importante baisse du nombre d’abonnés à ses titres jeunesse, l’un des quatre piliers du groupe, à savoir la presse éducative pour la jeunesse[12].
+Début octobre 2019, Bayard annonce un bénéfice net en très large hausse sur l'exercice décalé 2018-2019 avec un résultat net de 3,9 millions d'euros contre 0,3 million d'euros l'année précédente. Porté par la presse et l'édition jeunesse, le Groupe Bayard enregistre un chiffre d'affaires de 344,9 millions d'euros (en hausse lui aussi de 0,3 % par rapport à l'année précédente).
+Début octobre 2020, Bayard déplore une perte nette de 7,3 millions d'euros sur l'exercice décalé 2019-2020, affecté par la Covid-19 et par le dépôt de bilan de Presstalis,.
+En mars 2024, le directoire du groupe annonce à ses salariés une perte record de 7,5 millions d’euros. Cette situation critique résulterait d’une importante baisse du nombre d’abonnés à ses titres jeunesse, l’un des quatre piliers du groupe, à savoir la presse éducative pour la jeunesse.
 </t>
         </is>
       </c>
@@ -571,13 +585,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Titres existants
-Premier groupe de presse catholique et cinquième groupe de presse en France par la diffusion, l'activité du groupe Bayard repose sur quatre piliers :
+          <t>Titres existants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Premier groupe de presse catholique et cinquième groupe de presse en France par la diffusion, l'activité du groupe Bayard repose sur quatre piliers :
 La presse éducative pour la jeunesse, développée depuis la fin des années 1960 :
 Petite enfance : Popi (1986), Pomme d'Api (1966), Tralalire (2004], Les Belles Histoires (1972), Babar (1990), Youpi (1988)
 Enfance : Astrapi (1978), Mes premiers J'aime Lire (1993), J'aime lire (1977), J'aime lire Max (2001), J'aime la BD ! (2004), Images Doc (1989)
 Adolescents : Okapi (1971), Je bouquine (1984), Phosphore (1981)
-Les magazines d'éveil religieux : Pomme d'Api Soleil (1989), Grain de Soleil (1988)  devenu Filoteo puis Astrapi Soleil[13].
+Les magazines d'éveil religieux : Pomme d'Api Soleil (1989), Grain de Soleil (1988)  devenu Filoteo puis Astrapi Soleil.
 Les magazines anglophones : I Love English Junior (1995), I Love English (1987), I love English World (1991).
 La presse sénior :
 Notre temps (1968).
@@ -586,28 +605,7 @@
 Liturgie : Prions en Église (1987)
 Culture et histoire des religions : Le Monde de la Bible (1977)
 L'actualité :
-Quotidien : La Croix (1883)
-Titres disparus
-Liste non exhaustive, par ordre chronologique de première parution :
-Le Noël
-Le Noël a été lancé en 1895. L'heddomadaire s'adressait à l'origine aux enfants. Il a cessé de paraître en 1940[14].
-L'Écho du « Noël »
-L'Écho du « Noël » a paru pour la 1re fois en 1906[6]; il paraissait chaque dimanche; c'était un hebdomadaire composé de récits émouvants, de contes illustrés, d'articles instructifs, d'histoires amusantes, de jeux; revue idéale des enfants. La guerre de 1914-1918 interrompt sa parution; elle reprendra en 1919[6]. L'Écho du « Noël » a cessé de paraître fin décembre 1935. Les abonnés à ce journal ont reçu, jusqu'à l'expiration de leur abonnement, en remplacement, Bayard à compter du dimanche 5 janvier 1936.
-Le Mois littéraire et pittoresque
-Lancé en janvier 1899, il s'agit d'un mensuel format in-4° consacré aux actualités littéraires et artistiques. Certaines couvertures sont d'Alfons Mucha. Parmi les collaborateurs illustrateurs, on compte Maurice Feuillet ou encore Marcel Lecoultre, fidèle de la Maison de la bonne presse. Le titre disparaît en juillet 1917, après 217 livraisons[15].
-L'Étoile Noëliste
-L'Étoile Noëliste a été lancé le 1er janvier 1914. Cet hebdomadaire illustré féminin était édité à destination des enfants à partir de 6 ans. Les jeunes filles, à partir de quinze ans, étaient invitées à s'abonner au Noël. Il paraissait le jeudi. La revue disparaît sous sa forme hebdomadaire le 23 juin 1938, no 1259.
-Bernadette
-Bernadette est le premier titre destiné à un public féminin de Bayard ; lancé en janvier 1914. Sa parution s'arrête au no 31 quelques mois plus tard avec la Grande guerre. Elle reprendra en 1923 pour se maintenir cette fois-ci jusqu'en 1963, date à laquelle Record est pressenti pouvoir intéresser les deux sexes, avec une interruption toujours pour cause de guerre, puis de pénurie, de 1940 à 1946. Impression en offset à partir du 1er juillet 1956.
-Marie-France
-De la même manière que Bayard devient Jean et Paul, en zone libre, à partir du 22 décembre 1940, Bernadette change de nom durant l'Occupation, et devient Marie-France à compter de janvier 1941. 
-À la page
-À la page a été lancé en 1930. La guerre interrompt sa parution. Reprise du titre en 1949; arrêt définitif en 1951[6].
-À la page était un hebdomadaire pour les jeunes garçons de plus de 14 ans ; « grand frère » du journal hebdomadaire Bayard.
-Bayard
-Record
-Muze
-Panorama</t>
+Quotidien : La Croix (1883)</t>
         </is>
       </c>
     </row>
@@ -632,18 +630,414 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive, par ordre chronologique de première parution :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Le Noël</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Noël a été lancé en 1895. L'heddomadaire s'adressait à l'origine aux enfants. Il a cessé de paraître en 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>L'Écho du « Noël »</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Écho du « Noël » a paru pour la 1re fois en 1906; il paraissait chaque dimanche; c'était un hebdomadaire composé de récits émouvants, de contes illustrés, d'articles instructifs, d'histoires amusantes, de jeux; revue idéale des enfants. La guerre de 1914-1918 interrompt sa parution; elle reprendra en 1919. L'Écho du « Noël » a cessé de paraître fin décembre 1935. Les abonnés à ce journal ont reçu, jusqu'à l'expiration de leur abonnement, en remplacement, Bayard à compter du dimanche 5 janvier 1936.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Le Mois littéraire et pittoresque</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lancé en janvier 1899, il s'agit d'un mensuel format in-4° consacré aux actualités littéraires et artistiques. Certaines couvertures sont d'Alfons Mucha. Parmi les collaborateurs illustrateurs, on compte Maurice Feuillet ou encore Marcel Lecoultre, fidèle de la Maison de la bonne presse. Le titre disparaît en juillet 1917, après 217 livraisons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>L'Étoile Noëliste</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Étoile Noëliste a été lancé le 1er janvier 1914. Cet hebdomadaire illustré féminin était édité à destination des enfants à partir de 6 ans. Les jeunes filles, à partir de quinze ans, étaient invitées à s'abonner au Noël. Il paraissait le jeudi. La revue disparaît sous sa forme hebdomadaire le 23 juin 1938, no 1259.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bernadette</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette est le premier titre destiné à un public féminin de Bayard ; lancé en janvier 1914. Sa parution s'arrête au no 31 quelques mois plus tard avec la Grande guerre. Elle reprendra en 1923 pour se maintenir cette fois-ci jusqu'en 1963, date à laquelle Record est pressenti pouvoir intéresser les deux sexes, avec une interruption toujours pour cause de guerre, puis de pénurie, de 1940 à 1946. Impression en offset à partir du 1er juillet 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Marie-France</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la même manière que Bayard devient Jean et Paul, en zone libre, à partir du 22 décembre 1940, Bernadette change de nom durant l'Occupation, et devient Marie-France à compter de janvier 1941. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Titres disparus</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>À la page</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la page a été lancé en 1930. La guerre interrompt sa parution. Reprise du titre en 1949; arrêt définitif en 1951.
+À la page était un hebdomadaire pour les jeunes garçons de plus de 14 ans ; « grand frère » du journal hebdomadaire Bayard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Publications internationales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À travers des filiales, des coentreprises ou des éditions sous licence, le groupe décline ses titres en les adaptant aux cultures de chaque pays et mène une politique de partenariat avec des groupes de presse locaux[16],[17].
-Amérique
-États-Unis : 10 titres dont Today's Parish et Catholic Digest
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À travers des filiales, des coentreprises ou des éditions sous licence, le groupe décline ses titres en les adaptant aux cultures de chaque pays et mène une politique de partenariat avec des groupes de presse locaux,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications internationales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>États-Unis : 10 titres dont Today's Parish et Catholic Digest
 Canada : 17 titres dont Pomme d'Api, Owl et ChickaDEE
-Mexique : 2 titres Oooh et Un mundo a mi tamaño
-Europe (hors France)
-Espagne : 13 titres
+Mexique : 2 titres Oooh et Un mundo a mi tamaño</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications internationales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Europe (hors France)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Espagne : 13 titres
 Grande-Bretagne : 4 titres
 Belgique : 6 titres
 Pays-Bas : 4 titres
@@ -652,41 +1046,111 @@
 Norvège : 1 titre : Vi Over 60
 Grèce : 1 titre : Anakalypto Ton Kosmo
 Italie : 1 titre : Il Mondo Della Bibbia
-Suisse : 1 titre : Yakari
-Afrique
-Planète Enfants et Planète Jeunes
-Asie
-Hong Kong : 5 titres Little Toy Car, Little Red Apple, Red Apple, White Antelope et I Love English Junior
+Suisse : 1 titre : Yakari</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications internationales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Planète Enfants et Planète Jeunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications internationales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hong Kong : 5 titres Little Toy Car, Little Red Apple, Red Apple, White Antelope et I Love English Junior
 Chine : 3 titres Pomme d'Api, Image Doc et Enfant Magazine
 Corée du Sud : 2 titres Popi et Enfant Magazine</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Groupe_Bayard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>En 1948, la filiale Bayard Service Édition est créée. 
 En 2004, Bayard a fait l'acquisition des sociétés Milan Presse et Éditions Milan qui éditent (tout en conservant leur identité propre) :
@@ -704,34 +1168,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Groupe_Bayard</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Bayard</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Bayard Éditions.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Listes des romans
-Chair de poule (74 tomes), Robert Lawrence Stine ;
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Listes des romans</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chair de poule (74 tomes), Robert Lawrence Stine ;
 L'Héritage (4 tomes), Christopher Paolini ;
 Wakfu (9 tomes), Christophe Lambert ;
 Dofus : Aux trésors de Kerubim (5 tomes), Christophe Lambert ;
